--- a/downloaded_files/SBES151_Tutorial-35346.xlsx
+++ b/downloaded_files/SBES151_Tutorial-35346.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -292,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t>Malak fathy saad fathy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك محمد حسين محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Malak Mohamed Hussein Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1220105</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4152314005</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES151_Tutorial-35346.xlsx
+++ b/downloaded_files/SBES151_Tutorial-35346.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Gamila Hatem ElSayed Ahmed Mohamed Aly Farag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جهاد خميس محمود مراد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gehad khamis Mahmoud Morad</x:t>
   </x:si>
   <x:si>
     <x:t>1220047</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -762,7 +771,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.380625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1163,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4155171296</x:v>
+        <x:v>45928.4329643519</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45907.4155171296</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6672243056</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45907.6672243056</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4149654745</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.415921331</x:v>
+        <x:v>45907.4149654745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45906.415921331</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4156276273</x:v>
+        <x:v>45906.6678304745</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.417681169</x:v>
+        <x:v>45907.4156276273</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45907.417681169</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4176326389</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4176326389</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4152314005</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES151_Tutorial-35346.xlsx
+++ b/downloaded_files/SBES151_Tutorial-35346.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Malak fathy saad fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك محمد حسين محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Malak Mohamed Hussein Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1220105</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45930.3563403125</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.4152314005</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
